--- a/medicine/Enfance/Rémi_Laureillard/Rémi_Laureillard.xlsx
+++ b/medicine/Enfance/Rémi_Laureillard/Rémi_Laureillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Laureillard</t>
+          <t>Rémi_Laureillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rémi Laureillard, né le 23 octobre 1938, prénommé d'après le héros du roman Sans famille d'Hector Malot, est un écrivain français, romancier, auteur dramatique, librettiste et auteur de littérature de jeunesse.
 Critique littéraire à l'Express et à la Quinzaine littéraire, il publie dès 1960 un premier roman, Hiclem, aux éditions Gallimard. Germaniste, lecteur pour la même maison d'édition, il traduit des livres d'auteurs allemands comme Joseph von Eichendorff (Scènes de la vie d'un propre-à-rien et La statue de marbre, dans Romantiques allemands, vol. 2, Pléiade, 1979) ou Günter Kunert (Au nom des chapeaux), et des romans pour la jeunesse d'Erich Kästner (Le petit homme), de  Helme Heine (Le Mariage de Cochonnet) et de Gudrun Mebs (L'enfant du dimanche). Il publie aussi deux anthologies, Le tailleur d'Ulm (contes, récits et poèmes traduits de l'allemand) (Gallimard,1981) et L'Allemagne en poésie (Gallimard, 1982). Il  traduit de l'allemand divers ouvrages d'histoire, de philosophie ou de psychologie, parmi lesquels L'homme et l'animal : essai de psychologie comparée de F. J. J. Buytendijk, Les mouvements fascistes : l'Europe de 1919 à 1945 de Ernst Nolte (1969), De Hegel à Nietzsche de Karl Löwith (1969), L'archéologie de la sexualité de Paul Frischauer (1969). Par ailleurs, iI a  traduit de l'anglais Le Démon de Socrate, essais et discours d'Arthur Koestler (1970).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Laureillard</t>
+          <t>Rémi_Laureillard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hiclem, Gallimard, 1960 (roman)
 La statue de marbre, inédit, 1973 (roman)
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Laureillard</t>
+          <t>Rémi_Laureillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'allemand :
 L'homme et l'animal : essai de psychologie comparée de Frederick Jakobus Johannes Buytendijk, Gallimard, 1965   
